--- a/!Sauer_SSExcel_SetupSheet.xlsx
+++ b/!Sauer_SSExcel_SetupSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SAUERSVR1\common\Inventor-HSMWorks\MACHINE POSTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Inventor-HSMWorks\MACHINE POSTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DADCA3-1EEB-4EE7-AAE6-C192E4376F62}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38651F44-91FE-4E0B-8178-17FF8F9EF1EF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -703,12 +703,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="29">
@@ -1042,7 +1048,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1273,11 +1279,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1286,7 +1288,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1451,6 +1453,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1479,8 +1489,8 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>828675</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
@@ -1507,7 +1517,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="28575" y="38100"/>
-          <a:ext cx="9048750" cy="5143500"/>
+          <a:ext cx="9010650" cy="5143500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2116,10 +2126,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+      <selection activeCell="A35" sqref="A35:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2127,13 +2137,13 @@
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
     <col min="2" max="2" width="5.42578125" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" customWidth="1"/>
     <col min="7" max="7" width="15.140625" customWidth="1"/>
-    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22"/>
       <c r="B1" s="22"/>
       <c r="C1" s="63"/>
@@ -2147,9 +2157,8 @@
       <c r="K1" s="22"/>
       <c r="L1" s="22"/>
       <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-    </row>
-    <row r="2" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="63"/>
@@ -2163,9 +2172,8 @@
       <c r="K2" s="23"/>
       <c r="L2" s="23"/>
       <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-    </row>
-    <row r="3" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="22"/>
       <c r="B3" s="22"/>
       <c r="C3" s="63"/>
@@ -2179,9 +2187,8 @@
       <c r="K3" s="22"/>
       <c r="L3" s="22"/>
       <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-    </row>
-    <row r="4" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="24"/>
       <c r="B4" s="24"/>
       <c r="C4" s="63"/>
@@ -2195,43 +2202,41 @@
       <c r="K4" s="24"/>
       <c r="L4" s="24"/>
       <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="62"/>
     </row>
-    <row r="6" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="90" t="s">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="152" t="s">
         <v>156</v>
       </c>
-      <c r="B33" s="96" t="s">
+      <c r="B33" s="153" t="s">
         <v>136</v>
       </c>
-      <c r="C33" s="96"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="91" t="s">
+      <c r="C33" s="153"/>
+      <c r="D33" s="153"/>
+      <c r="E33" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="F33" s="92" t="s">
+      <c r="F33" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="G33" s="91" t="s">
+      <c r="G33" s="90" t="s">
         <v>152</v>
       </c>
-      <c r="H33" s="96" t="s">
+      <c r="H33" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="I33" s="96"/>
-      <c r="J33" s="96"/>
-      <c r="K33" s="96"/>
-      <c r="L33" s="99"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="93" t="s">
+      <c r="I33" s="95"/>
+      <c r="J33" s="95"/>
+      <c r="K33" s="97"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="91" t="s">
         <v>154</v>
       </c>
       <c r="B34" s="87" t="s">
@@ -2246,62 +2251,59 @@
       <c r="E34" s="88" t="s">
         <v>153</v>
       </c>
-      <c r="F34" s="100" t="s">
+      <c r="F34" s="98" t="s">
         <v>158</v>
       </c>
-      <c r="G34" s="100"/>
-      <c r="H34" s="100"/>
-      <c r="I34" s="100"/>
-      <c r="J34" s="100"/>
-      <c r="K34" s="100"/>
-      <c r="L34" s="101"/>
-      <c r="M34" s="52"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="93" t="s">
+      <c r="G34" s="98"/>
+      <c r="H34" s="98"/>
+      <c r="I34" s="98"/>
+      <c r="J34" s="98"/>
+      <c r="K34" s="99"/>
+      <c r="L34" s="52"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="154" t="s">
         <v>157</v>
       </c>
-      <c r="B35" s="97" t="s">
+      <c r="B35" s="155" t="s">
         <v>137</v>
       </c>
-      <c r="C35" s="97"/>
-      <c r="D35" s="97"/>
+      <c r="C35" s="155"/>
+      <c r="D35" s="155"/>
       <c r="E35" s="89"/>
-      <c r="F35" s="102"/>
-      <c r="G35" s="102"/>
-      <c r="H35" s="102"/>
-      <c r="I35" s="102"/>
-      <c r="J35" s="102"/>
-      <c r="K35" s="102"/>
-      <c r="L35" s="103"/>
-      <c r="M35" s="52"/>
-    </row>
-    <row r="36" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="95" t="s">
+      <c r="F35" s="100"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="100"/>
+      <c r="I35" s="100"/>
+      <c r="J35" s="100"/>
+      <c r="K35" s="101"/>
+      <c r="L35" s="52"/>
+    </row>
+    <row r="36" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="93" t="s">
         <v>160</v>
       </c>
-      <c r="B36" s="98" t="s">
+      <c r="B36" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="C36" s="98"/>
-      <c r="D36" s="98"/>
-      <c r="E36" s="94"/>
-      <c r="F36" s="104"/>
-      <c r="G36" s="104"/>
-      <c r="H36" s="104"/>
-      <c r="I36" s="104"/>
-      <c r="J36" s="104"/>
-      <c r="K36" s="104"/>
-      <c r="L36" s="105"/>
-      <c r="M36" s="52"/>
+      <c r="C36" s="96"/>
+      <c r="D36" s="96"/>
+      <c r="E36" s="92"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="102"/>
+      <c r="H36" s="102"/>
+      <c r="I36" s="102"/>
+      <c r="J36" s="102"/>
+      <c r="K36" s="103"/>
+      <c r="L36" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="B36:D36"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="F34:L36"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="F34:K36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2344,22 +2346,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="120" t="s">
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="117" t="s">
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="117"/>
+      <c r="J1" s="115"/>
       <c r="K1" s="82"/>
       <c r="L1" s="21"/>
       <c r="M1" s="21"/>
@@ -2368,87 +2370,87 @@
       <c r="P1" s="21"/>
     </row>
     <row r="2" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="118" t="s">
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="118"/>
+      <c r="J2" s="116"/>
       <c r="K2" s="83"/>
       <c r="L2" s="21"/>
       <c r="M2" s="21"/>
       <c r="N2" s="23"/>
       <c r="O2" s="23"/>
       <c r="P2" s="21"/>
-      <c r="S2" s="116" t="s">
+      <c r="S2" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="107"/>
-      <c r="U2" s="108"/>
+      <c r="T2" s="105"/>
+      <c r="U2" s="106"/>
     </row>
     <row r="3" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="120" t="s">
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="117" t="s">
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="117"/>
+      <c r="J3" s="115"/>
       <c r="K3" s="82"/>
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
       <c r="N3" s="22"/>
       <c r="O3" s="22"/>
       <c r="P3" s="21"/>
-      <c r="S3" s="116" t="s">
+      <c r="S3" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="107"/>
-      <c r="U3" s="108"/>
+      <c r="T3" s="105"/>
+      <c r="U3" s="106"/>
     </row>
     <row r="4" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="119" t="s">
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="119"/>
+      <c r="J4" s="117"/>
       <c r="K4" s="84"/>
       <c r="L4" s="21"/>
       <c r="M4" s="21"/>
       <c r="N4" s="24"/>
       <c r="O4" s="24"/>
       <c r="P4" s="21"/>
-      <c r="S4" s="116" t="s">
+      <c r="S4" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="T4" s="107"/>
-      <c r="U4" s="108"/>
+      <c r="T4" s="105"/>
+      <c r="U4" s="106"/>
     </row>
     <row r="5" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25"/>
@@ -2461,98 +2463,98 @@
       <c r="H5" s="26"/>
       <c r="I5" s="26"/>
       <c r="J5" s="26"/>
-      <c r="S5" s="116" t="s">
+      <c r="S5" s="114" t="s">
         <v>29</v>
       </c>
-      <c r="T5" s="107"/>
-      <c r="U5" s="108"/>
+      <c r="T5" s="105"/>
+      <c r="U5" s="106"/>
     </row>
     <row r="6" spans="1:21" s="21" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="114" t="s">
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="114"/>
-      <c r="F6" s="112" t="s">
+      <c r="E6" s="112"/>
+      <c r="F6" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="112"/>
-      <c r="H6" s="113"/>
-      <c r="S6" s="116" t="s">
+      <c r="G6" s="110"/>
+      <c r="H6" s="111"/>
+      <c r="S6" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="T6" s="107"/>
-      <c r="U6" s="108"/>
+      <c r="T6" s="105"/>
+      <c r="U6" s="106"/>
     </row>
     <row r="7" spans="1:21" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="110"/>
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="115" t="s">
+      <c r="A7" s="108"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="115"/>
-      <c r="F7" s="112" t="s">
+      <c r="E7" s="113"/>
+      <c r="F7" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="112"/>
-      <c r="H7" s="113"/>
-      <c r="S7" s="106" t="s">
+      <c r="G7" s="110"/>
+      <c r="H7" s="111"/>
+      <c r="S7" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="T7" s="107"/>
-      <c r="U7" s="108"/>
+      <c r="T7" s="105"/>
+      <c r="U7" s="106"/>
     </row>
     <row r="8" spans="1:21" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="110"/>
-      <c r="B8" s="110"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="109" t="s">
+      <c r="A8" s="108"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="107" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="85" t="s">
         <v>138</v>
       </c>
-      <c r="F8" s="111" t="e">
+      <c r="F8" s="109" t="e">
         <f>S5-S2</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G8" s="112"/>
-      <c r="H8" s="113"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="111"/>
     </row>
     <row r="9" spans="1:21" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="110"/>
-      <c r="B9" s="110"/>
-      <c r="C9" s="110"/>
-      <c r="D9" s="109"/>
+      <c r="A9" s="108"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="107"/>
       <c r="E9" s="85" t="s">
         <v>139</v>
       </c>
-      <c r="F9" s="111" t="e">
+      <c r="F9" s="109" t="e">
         <f>S6-S3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G9" s="112"/>
-      <c r="H9" s="113"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="111"/>
     </row>
     <row r="10" spans="1:21" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="110"/>
-      <c r="B10" s="110"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="109"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="107"/>
       <c r="E10" s="85" t="s">
         <v>140</v>
       </c>
-      <c r="F10" s="111" t="e">
+      <c r="F10" s="109" t="e">
         <f>S7-S4</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G10" s="112"/>
-      <c r="H10" s="113"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="111"/>
     </row>
     <row r="11" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="67"/>
@@ -2680,367 +2682,367 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="150" t="s">
+      <c r="B1" s="134"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="135" t="s">
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="150"/>
+      <c r="L1" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="136"/>
-      <c r="N1" s="136"/>
-      <c r="O1" s="137"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="135"/>
     </row>
     <row r="2" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="141" t="s">
+      <c r="B2" s="137"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="144"/>
+      <c r="L2" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="142"/>
-      <c r="N2" s="142"/>
-      <c r="O2" s="143"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="141"/>
     </row>
     <row r="3" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="144" t="s">
+      <c r="B3" s="134"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="145"/>
-      <c r="K3" s="146"/>
-      <c r="L3" s="135" t="s">
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="144"/>
+      <c r="L3" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="136"/>
-      <c r="N3" s="136"/>
-      <c r="O3" s="137"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="135"/>
     </row>
     <row r="4" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="138" t="s">
+      <c r="A4" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="139"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="147"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="148"/>
-      <c r="J4" s="148"/>
-      <c r="K4" s="149"/>
-      <c r="L4" s="138" t="s">
+      <c r="B4" s="137"/>
+      <c r="C4" s="138"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="139"/>
-      <c r="N4" s="139"/>
-      <c r="O4" s="140"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="137"/>
+      <c r="O4" s="138"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="123" t="s">
+      <c r="A6" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="124"/>
-      <c r="C6" s="121" t="s">
+      <c r="B6" s="122"/>
+      <c r="C6" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="122"/>
-      <c r="E6" s="116" t="s">
+      <c r="D6" s="120"/>
+      <c r="E6" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="107"/>
-      <c r="G6" s="108"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="106"/>
     </row>
     <row r="7" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="127"/>
-      <c r="B7" s="128"/>
-      <c r="C7" s="121" t="s">
+      <c r="A7" s="125"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="122"/>
-      <c r="E7" s="116" t="s">
+      <c r="D7" s="120"/>
+      <c r="E7" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="107"/>
-      <c r="G7" s="108"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="106"/>
     </row>
     <row r="8" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="123" t="s">
+      <c r="A8" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="124"/>
-      <c r="C8" s="121" t="s">
+      <c r="B8" s="122"/>
+      <c r="C8" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="122"/>
-      <c r="E8" s="116" t="s">
+      <c r="D8" s="120"/>
+      <c r="E8" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="107"/>
-      <c r="G8" s="108"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="106"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="125"/>
-      <c r="B9" s="126"/>
-      <c r="C9" s="121" t="s">
+      <c r="A9" s="123"/>
+      <c r="B9" s="124"/>
+      <c r="C9" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="116" t="s">
+      <c r="D9" s="120"/>
+      <c r="E9" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="107"/>
-      <c r="G9" s="108"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="106"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="127"/>
-      <c r="B10" s="128"/>
-      <c r="C10" s="121" t="s">
+      <c r="A10" s="125"/>
+      <c r="B10" s="126"/>
+      <c r="C10" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="122"/>
-      <c r="E10" s="116" t="s">
+      <c r="D10" s="120"/>
+      <c r="E10" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="107"/>
-      <c r="G10" s="108"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="106"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="123" t="s">
+      <c r="A11" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="124"/>
-      <c r="C11" s="121" t="s">
+      <c r="B11" s="122"/>
+      <c r="C11" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="122"/>
-      <c r="E11" s="116" t="e">
+      <c r="D11" s="120"/>
+      <c r="E11" s="114" t="e">
         <f>E17-E14</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F11" s="107"/>
-      <c r="G11" s="108"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="106"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="125"/>
-      <c r="B12" s="126"/>
-      <c r="C12" s="121" t="s">
+      <c r="A12" s="123"/>
+      <c r="B12" s="124"/>
+      <c r="C12" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="122"/>
-      <c r="E12" s="116" t="e">
+      <c r="D12" s="120"/>
+      <c r="E12" s="114" t="e">
         <f>E18-E15</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F12" s="107"/>
-      <c r="G12" s="108"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="106"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="125"/>
-      <c r="B13" s="126"/>
-      <c r="C13" s="121" t="s">
+      <c r="A13" s="123"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="122"/>
-      <c r="E13" s="116" t="e">
+      <c r="D13" s="120"/>
+      <c r="E13" s="114" t="e">
         <f>E19-E16</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F13" s="107"/>
-      <c r="G13" s="108"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="106"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="125"/>
-      <c r="B14" s="126"/>
-      <c r="C14" s="121" t="s">
+      <c r="A14" s="123"/>
+      <c r="B14" s="124"/>
+      <c r="C14" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="122"/>
-      <c r="E14" s="116" t="s">
+      <c r="D14" s="120"/>
+      <c r="E14" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="107"/>
-      <c r="G14" s="108"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="106"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="125"/>
-      <c r="B15" s="126"/>
-      <c r="C15" s="121" t="s">
+      <c r="A15" s="123"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="122"/>
-      <c r="E15" s="116" t="s">
+      <c r="D15" s="120"/>
+      <c r="E15" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="107"/>
-      <c r="G15" s="108"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="106"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="125"/>
-      <c r="B16" s="126"/>
-      <c r="C16" s="121" t="s">
+      <c r="A16" s="123"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="122"/>
-      <c r="E16" s="116" t="s">
+      <c r="D16" s="120"/>
+      <c r="E16" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="107"/>
-      <c r="G16" s="108"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="106"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="125"/>
-      <c r="B17" s="126"/>
-      <c r="C17" s="121" t="s">
+      <c r="A17" s="123"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="122"/>
-      <c r="E17" s="116" t="s">
+      <c r="D17" s="120"/>
+      <c r="E17" s="114" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="107"/>
-      <c r="G17" s="108"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="106"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="125"/>
-      <c r="B18" s="126"/>
-      <c r="C18" s="121" t="s">
+      <c r="A18" s="123"/>
+      <c r="B18" s="124"/>
+      <c r="C18" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="122"/>
-      <c r="E18" s="116" t="s">
+      <c r="D18" s="120"/>
+      <c r="E18" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="107"/>
-      <c r="G18" s="108"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="106"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="127"/>
-      <c r="B19" s="128"/>
-      <c r="C19" s="121" t="s">
+      <c r="A19" s="125"/>
+      <c r="B19" s="126"/>
+      <c r="C19" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="122"/>
-      <c r="E19" s="116" t="s">
+      <c r="D19" s="120"/>
+      <c r="E19" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="107"/>
-      <c r="G19" s="108"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="106"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="123" t="s">
+      <c r="A20" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="124"/>
-      <c r="C20" s="121" t="s">
+      <c r="B20" s="122"/>
+      <c r="C20" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="122"/>
-      <c r="E20" s="129" t="s">
+      <c r="D20" s="120"/>
+      <c r="E20" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="130"/>
-      <c r="G20" s="131"/>
+      <c r="F20" s="128"/>
+      <c r="G20" s="129"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="125"/>
-      <c r="B21" s="126"/>
+      <c r="A21" s="123"/>
+      <c r="B21" s="124"/>
       <c r="C21" s="3"/>
       <c r="D21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="129" t="s">
+      <c r="E21" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="130"/>
-      <c r="G21" s="131"/>
+      <c r="F21" s="128"/>
+      <c r="G21" s="129"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="125"/>
-      <c r="B22" s="126"/>
-      <c r="C22" s="121" t="s">
+      <c r="A22" s="123"/>
+      <c r="B22" s="124"/>
+      <c r="C22" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="122"/>
-      <c r="E22" s="129" t="s">
+      <c r="D22" s="120"/>
+      <c r="E22" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="130"/>
-      <c r="G22" s="131"/>
+      <c r="F22" s="128"/>
+      <c r="G22" s="129"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="125"/>
-      <c r="B23" s="126"/>
-      <c r="C23" s="121" t="s">
+      <c r="A23" s="123"/>
+      <c r="B23" s="124"/>
+      <c r="C23" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="122"/>
-      <c r="E23" s="132" t="s">
+      <c r="D23" s="120"/>
+      <c r="E23" s="130" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="133"/>
-      <c r="G23" s="134"/>
+      <c r="F23" s="131"/>
+      <c r="G23" s="132"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="125"/>
-      <c r="B24" s="126"/>
-      <c r="C24" s="121" t="s">
+      <c r="A24" s="123"/>
+      <c r="B24" s="124"/>
+      <c r="C24" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="122"/>
-      <c r="E24" s="116" t="s">
+      <c r="D24" s="120"/>
+      <c r="E24" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="107"/>
-      <c r="G24" s="108"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="106"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="127"/>
-      <c r="B25" s="128"/>
-      <c r="C25" s="121" t="s">
+      <c r="A25" s="125"/>
+      <c r="B25" s="126"/>
+      <c r="C25" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="122"/>
-      <c r="E25" s="116" t="s">
+      <c r="D25" s="120"/>
+      <c r="E25" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="107"/>
-      <c r="G25" s="108"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="53">
@@ -3139,96 +3141,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="150" t="s">
+      <c r="B1" s="134"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="152"/>
-      <c r="M1" s="135" t="s">
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="150"/>
+      <c r="M1" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="136"/>
-      <c r="O1" s="136"/>
-      <c r="P1" s="137"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="135"/>
     </row>
     <row r="2" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="146"/>
-      <c r="M2" s="141" t="s">
+      <c r="B2" s="137"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="144"/>
+      <c r="M2" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="142"/>
-      <c r="O2" s="142"/>
-      <c r="P2" s="143"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="141"/>
     </row>
     <row r="3" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="144" t="s">
+      <c r="B3" s="134"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="142" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="145"/>
-      <c r="K3" s="145"/>
-      <c r="L3" s="146"/>
-      <c r="M3" s="135" t="s">
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="144"/>
+      <c r="M3" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="136"/>
-      <c r="O3" s="136"/>
-      <c r="P3" s="137"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="135"/>
     </row>
     <row r="4" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="138" t="s">
+      <c r="A4" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="139"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="147"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="148"/>
-      <c r="J4" s="148"/>
-      <c r="K4" s="148"/>
-      <c r="L4" s="149"/>
-      <c r="M4" s="138" t="s">
+      <c r="B4" s="137"/>
+      <c r="C4" s="138"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="146"/>
+      <c r="L4" s="147"/>
+      <c r="M4" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="139"/>
-      <c r="O4" s="139"/>
-      <c r="P4" s="140"/>
+      <c r="N4" s="137"/>
+      <c r="O4" s="137"/>
+      <c r="P4" s="138"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E5" s="5"/>
@@ -3393,93 +3395,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="150" t="s">
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="135" t="s">
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="150"/>
+      <c r="K1" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="136"/>
-      <c r="M1" s="137"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="135"/>
       <c r="N1" s="22"/>
       <c r="O1" s="22"/>
       <c r="P1" s="21"/>
     </row>
     <row r="2" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="141" t="s">
+      <c r="B2" s="137"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="142"/>
-      <c r="M2" s="143"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="141"/>
       <c r="N2" s="23"/>
       <c r="O2" s="23"/>
       <c r="P2" s="21"/>
     </row>
     <row r="3" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="144" t="s">
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="142" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="146"/>
-      <c r="K3" s="135" t="s">
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="144"/>
+      <c r="K3" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="136"/>
-      <c r="M3" s="137"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="135"/>
       <c r="N3" s="22"/>
       <c r="O3" s="22"/>
       <c r="P3" s="21"/>
     </row>
     <row r="4" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="138" t="s">
+      <c r="A4" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="148"/>
-      <c r="J4" s="149"/>
-      <c r="K4" s="138" t="s">
+      <c r="B4" s="137"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="139"/>
-      <c r="M4" s="140"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="138"/>
       <c r="N4" s="24"/>
       <c r="O4" s="24"/>
       <c r="P4" s="21"/>
@@ -3624,10 +3626,10 @@
       <c r="A5" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="153" t="s">
+      <c r="B5" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="153"/>
+      <c r="C5" s="151"/>
       <c r="D5" s="51"/>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -3964,11 +3966,11 @@
         <f>60/D31*C31</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K31" s="132" t="s">
+      <c r="K31" s="130" t="s">
         <v>42</v>
       </c>
-      <c r="L31" s="133"/>
-      <c r="M31" s="134"/>
+      <c r="L31" s="131"/>
+      <c r="M31" s="132"/>
     </row>
     <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B32" s="38"/>
